--- a/python_IO/zz-test_read.xlsx
+++ b/python_IO/zz-test_read.xlsx
@@ -8,45 +8,61 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>你会爬树么</t>
+  </si>
+  <si>
+    <t>节日快乐</t>
+  </si>
+  <si>
+    <t>不喜欢</t>
+  </si>
+  <si>
+    <t>李白是谁</t>
+  </si>
+  <si>
+    <t>sheet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jldhfakldh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alkdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aldkjf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aljd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aldjfaj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>la</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,8 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,56 +414,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/python_IO/zz-test_read.xlsx
+++ b/python_IO/zz-test_read.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,47 +451,38 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N14">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N15">
         <v>1</v>
       </c>
     </row>

--- a/python_IO/zz-test_read.xlsx
+++ b/python_IO/zz-test_read.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>你会爬树么</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -427,44 +439,52 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -482,7 +502,10 @@
       <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N16">
         <v>1</v>
       </c>
     </row>
